--- a/emailList.xlsx
+++ b/emailList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_isi\Documents\GMAIL  GEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E02D23-A7B6-4450-B5C2-E8880308C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A8364-8394-4226-955A-B304094F5814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26130" yWindow="1155" windowWidth="22995" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,10 +269,10 @@
     <t>rgrg</t>
   </si>
   <si>
-    <t>https://auth.uber.com/login/?uber_client_name=eatsWebSignUp</t>
-  </si>
-  <si>
     <t>ethicsrearrahuip2123</t>
+  </si>
+  <si>
+    <t>https://auth.uber.com/v2/?breeze_local_zone=dca1&amp;next_url=https%3A%2F%2Fwww.ubereats.com%2Flogin-redirect%2F%3Fcampaign%3Dsignin_universal_link%26marketing_vistor_id%0%26redirect%3D%252Fde&amp;state=0%3D&amp;x-uber-analytics-session-id=0</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -827,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>80</v>
@@ -836,7 +836,7 @@
         <v>81</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>47</v>

--- a/emailList.xlsx
+++ b/emailList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m_isi\Documents\GMAIL  GEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1A8364-8394-4226-955A-B304094F5814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1A08D-E0FF-4347-B789-02C45B75E2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="6225" windowWidth="22995" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>maxsmith1371</t>
   </si>
   <si>
-    <t>190.112.193.59:1212</t>
-  </si>
-  <si>
     <t>erfer</t>
   </si>
   <si>
@@ -273,6 +270,9 @@
   </si>
   <si>
     <t>https://auth.uber.com/v2/?breeze_local_zone=dca1&amp;next_url=https%3A%2F%2Fwww.ubereats.com%2Flogin-redirect%2F%3Fcampaign%3Dsignin_universal_link%26marketing_vistor_id%0%26redirect%3D%252Fde&amp;state=0%3D&amp;x-uber-analytics-session-id=0</t>
+  </si>
+  <si>
+    <t>91.239.130.17:12323</t>
   </si>
 </sst>
 </file>
@@ -750,8 +750,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -821,22 +821,22 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>47</v>
@@ -871,8 +871,8 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>77</v>
@@ -916,8 +916,8 @@
       <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>48</v>
@@ -1381,9 +1381,11 @@
     <hyperlink ref="H4" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="F2" r:id="rId16" display="https://jimpix.co.uk/words/username.asp?u=ethics.rearrange" xr:uid="{34799DFB-097E-4496-91B9-4124AAEEA016}"/>
     <hyperlink ref="C2" r:id="rId17" xr:uid="{627F052E-3266-4FFD-972A-8791900136FA}"/>
+    <hyperlink ref="C3" r:id="rId18" xr:uid="{A99BEB82-0433-46E4-9AEF-DC6B21FC443D}"/>
+    <hyperlink ref="C4" r:id="rId19" xr:uid="{2C338C87-BE4F-435A-A736-EE15242C967C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
